--- a/CN_Provinces/CN_Policy/V4-Yuhang_Pan-CN_lockdown_data加官员信息.xlsx
+++ b/CN_Provinces/CN_Policy/V4-Yuhang_Pan-CN_lockdown_data加官员信息.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qitianhu/Documents/Research/Explore/COVID-19_sosc/CN_Provinces/CN_Policy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5C4873-17A1-6346-84C7-CC2CD322D5A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B1EDCF-3B9B-1043-99E4-200D9C15738C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="21800" windowWidth="23640" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8500" yWindow="23840" windowWidth="23640" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="325">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -992,6 +992,9 @@
   </si>
   <si>
     <t>birthmonth</t>
+  </si>
+  <si>
+    <t>city_code_full</t>
   </si>
 </sst>
 </file>
@@ -1412,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="106" workbookViewId="0">
-      <selection activeCell="M97" sqref="M97"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="106" workbookViewId="0">
+      <selection activeCell="Q92" sqref="Q92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1427,7 +1430,7 @@
     <col min="11" max="11" width="13.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,8 +1470,11 @@
       <c r="N1" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1511,8 +1517,12 @@
       <c r="N2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <f>C2*100</f>
+        <v>420100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1552,8 +1562,12 @@
       <c r="M3" s="4">
         <v>25082</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="0">C3*100</f>
+        <v>420200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1593,8 +1607,12 @@
       <c r="M4" s="4">
         <v>23285</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>420300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1634,8 +1652,12 @@
       <c r="M5" s="4">
         <v>23498</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>420500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1675,8 +1697,12 @@
       <c r="M6" s="4">
         <v>24198</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>420700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1716,8 +1742,12 @@
       <c r="M7" s="4">
         <v>22890</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>420800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1757,8 +1787,12 @@
       <c r="M8" s="4">
         <v>23743</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>420900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1798,8 +1832,12 @@
       <c r="M9" s="4">
         <v>23255</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>421100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1839,8 +1877,12 @@
       <c r="M10" s="4">
         <v>24351</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>421200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1880,8 +1922,12 @@
       <c r="M11" s="4">
         <v>23955</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>422800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1921,8 +1967,12 @@
       <c r="M12" s="4">
         <v>22706</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>130300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1962,8 +2012,12 @@
       <c r="M13" s="4">
         <v>23802</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>420600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2003,8 +2057,12 @@
       <c r="M14" s="4">
         <v>22951</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>421000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2044,8 +2102,12 @@
       <c r="M15" s="4">
         <v>26207</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>42900400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2085,8 +2147,12 @@
       <c r="M16" s="4">
         <v>23102</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>130200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2126,8 +2192,12 @@
       <c r="M17" s="4">
         <v>23285</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>370500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2167,8 +2237,12 @@
       <c r="M18" s="4">
         <v>22160</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2208,8 +2282,12 @@
       <c r="M19" s="4">
         <v>22129</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>640100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2249,8 +2327,12 @@
       <c r="M20" s="4">
         <v>23285</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>640300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2290,8 +2372,12 @@
       <c r="M21" s="4">
         <v>24259</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>330300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2331,8 +2417,12 @@
       <c r="M22" s="4">
         <v>22920</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>320200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2372,8 +2462,12 @@
       <c r="M23" s="4">
         <v>23682</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>370800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2413,8 +2507,12 @@
       <c r="M24" s="4">
         <v>22981</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>230100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2454,8 +2552,12 @@
       <c r="M25" s="4">
         <v>22828</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>320100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2495,8 +2597,12 @@
       <c r="M26" s="4">
         <v>22951</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>320300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2536,8 +2642,12 @@
       <c r="M27" s="4">
         <v>24716</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>320400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2577,8 +2687,12 @@
       <c r="M28" s="4">
         <v>23102</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>320600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2618,8 +2732,12 @@
       <c r="M29" s="4">
         <v>24716</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>330100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2659,8 +2777,12 @@
       <c r="M30" s="4">
         <v>22586</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>330200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2700,8 +2822,12 @@
       <c r="M31" s="4">
         <v>22372</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>350100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2741,8 +2867,12 @@
       <c r="M32" s="4">
         <v>23163</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>360200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2782,8 +2912,12 @@
       <c r="M33" s="4">
         <v>22282</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>370400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2826,8 +2960,12 @@
       <c r="N34" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>371300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2867,8 +3005,12 @@
       <c r="M35" s="4">
         <v>23590</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>410100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2908,8 +3050,12 @@
       <c r="M36" s="4">
         <v>23774</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>411700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2949,8 +3095,12 @@
       <c r="M37" s="4">
         <v>22463</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>210100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2990,8 +3140,12 @@
       <c r="M38" s="4">
         <v>25112</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <f>C38*100</f>
+        <v>210200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3031,8 +3185,12 @@
       <c r="M39" s="4">
         <v>22767</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>210300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3072,8 +3230,12 @@
       <c r="M40" s="4">
         <v>23621</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>210400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3113,8 +3275,12 @@
       <c r="M41" s="4">
         <v>24016</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>210500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3154,8 +3320,12 @@
       <c r="M42" s="4">
         <v>23651</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>210600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3195,8 +3365,12 @@
       <c r="M43" s="4">
         <v>23163</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>210700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3236,8 +3410,12 @@
       <c r="M44" s="4">
         <v>24442</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>210900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3277,8 +3455,12 @@
       <c r="M45" s="4">
         <v>23346</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>211000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3318,8 +3500,12 @@
       <c r="M46" s="4">
         <v>23285</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>211100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3359,8 +3545,12 @@
       <c r="M47" s="4">
         <v>23651</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>211200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3400,8 +3590,12 @@
       <c r="M48" s="4">
         <v>23498</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>211300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3441,8 +3635,12 @@
       <c r="M49" s="4">
         <v>23924</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>211400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3482,8 +3680,12 @@
       <c r="M50" s="4">
         <v>23863</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>321000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3523,8 +3725,12 @@
       <c r="M51" s="4">
         <v>23986</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>340100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3564,8 +3770,12 @@
       <c r="M52" s="4">
         <v>23102</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>350500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3608,8 +3818,12 @@
       <c r="N53" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <f t="shared" si="0"/>
+        <v>360100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3652,8 +3866,12 @@
       <c r="N54" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <f t="shared" si="0"/>
+        <v>370100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3693,8 +3911,12 @@
       <c r="M55" s="4">
         <v>23193</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <f t="shared" si="0"/>
+        <v>370200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3734,8 +3956,12 @@
       <c r="M56" s="4">
         <v>22402</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>370900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3775,8 +4001,12 @@
       <c r="M57" s="4">
         <v>24563</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>371100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3816,8 +4046,12 @@
       <c r="M58" s="4">
         <v>24442</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <f t="shared" si="0"/>
+        <v>371200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3857,8 +4091,12 @@
       <c r="M59" s="4">
         <v>22647</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <f t="shared" si="0"/>
+        <v>450100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3898,8 +4136,12 @@
       <c r="M60" s="4">
         <v>22616</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <f t="shared" si="0"/>
+        <v>530100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3939,8 +4181,12 @@
       <c r="M61" s="4">
         <v>20668</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3980,8 +4226,12 @@
       <c r="M62" s="4">
         <v>22341</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <f t="shared" si="0"/>
+        <v>130100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4021,8 +4271,12 @@
       <c r="M63" s="4">
         <v>23377</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <f t="shared" si="0"/>
+        <v>320500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4062,8 +4316,12 @@
       <c r="M64" s="4">
         <v>25051</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>360300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4103,8 +4361,12 @@
       <c r="M65" s="4">
         <v>23255</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>360400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4144,8 +4406,12 @@
       <c r="M66" s="4">
         <v>24838</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <f t="shared" si="0"/>
+        <v>360500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4185,8 +4451,12 @@
       <c r="M67" s="4">
         <v>22920</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <f t="shared" ref="O67:O68" si="1">C67*100</f>
+        <v>360600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4226,8 +4496,12 @@
       <c r="M68" s="4">
         <v>23043</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68">
+        <f t="shared" si="1"/>
+        <v>360700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4267,8 +4541,12 @@
       <c r="M69" s="4">
         <v>23316</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <f>C69*100</f>
+        <v>360800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4311,8 +4589,12 @@
       <c r="N70" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70">
+        <f t="shared" ref="O70:O96" si="2">C70*100</f>
+        <v>360900</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4352,8 +4634,12 @@
       <c r="M71" s="4">
         <v>22767</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71">
+        <f t="shared" si="2"/>
+        <v>361000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4393,8 +4679,12 @@
       <c r="M72" s="4">
         <v>22951</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72">
+        <f t="shared" si="2"/>
+        <v>361100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4434,8 +4724,12 @@
       <c r="M73" s="4">
         <v>23651</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <f t="shared" si="2"/>
+        <v>511000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4475,8 +4769,12 @@
       <c r="M74" s="4">
         <v>22951</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <f t="shared" si="2"/>
+        <v>511500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4516,8 +4814,12 @@
       <c r="M75" s="4">
         <v>22555</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75">
+        <f t="shared" si="2"/>
+        <v>411500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4557,8 +4859,12 @@
       <c r="M76" s="4">
         <v>24228</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76">
+        <f t="shared" si="2"/>
+        <v>421300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4598,8 +4904,12 @@
       <c r="M77" s="4">
         <v>23955</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77">
+        <f t="shared" si="2"/>
+        <v>440100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4639,8 +4949,12 @@
       <c r="M78" s="4">
         <v>22706</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <f t="shared" si="2"/>
+        <v>440300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4680,8 +4994,12 @@
       <c r="M79" s="4">
         <v>23651</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79">
+        <f t="shared" si="2"/>
+        <v>440600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4721,8 +5039,12 @@
       <c r="M80" s="4">
         <v>23102</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80">
+        <f t="shared" si="2"/>
+        <v>450600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4762,8 +5084,12 @@
       <c r="M81" s="4">
         <v>23924</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81">
+        <f t="shared" si="2"/>
+        <v>130900</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4803,8 +5129,12 @@
       <c r="M82" s="4">
         <v>23774</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82">
+        <f t="shared" si="2"/>
+        <v>340600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4844,8 +5174,12 @@
       <c r="M83" s="4">
         <v>20424</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83">
+        <f t="shared" si="2"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4885,8 +5219,12 @@
       <c r="M84" s="4">
         <v>21732</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84">
+        <f t="shared" si="2"/>
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4926,8 +5264,12 @@
       <c r="M85" s="4">
         <v>23529</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85">
+        <f t="shared" si="2"/>
+        <v>150100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4967,8 +5309,12 @@
       <c r="M86" s="4">
         <v>21855</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86">
+        <f t="shared" si="2"/>
+        <v>150200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5008,8 +5354,12 @@
       <c r="M87" s="4">
         <v>23102</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87">
+        <f t="shared" si="2"/>
+        <v>150300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5049,8 +5399,12 @@
       <c r="M88" s="4">
         <v>22828</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88">
+        <f t="shared" si="2"/>
+        <v>150400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5090,8 +5444,12 @@
       <c r="M89" s="4">
         <v>23193</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89">
+        <f t="shared" si="2"/>
+        <v>150500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5131,8 +5489,12 @@
       <c r="M90" s="4">
         <v>22647</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90">
+        <f t="shared" si="2"/>
+        <v>150600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5172,8 +5534,12 @@
       <c r="M91" s="4">
         <v>24047</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91">
+        <f t="shared" si="2"/>
+        <v>150700</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5213,8 +5579,12 @@
       <c r="M92" s="4">
         <v>25112</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92">
+        <f t="shared" si="2"/>
+        <v>150800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5257,8 +5627,12 @@
       <c r="N93" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93">
+        <f t="shared" si="2"/>
+        <v>150900</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5298,8 +5672,12 @@
       <c r="M94" s="4">
         <v>24807</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94">
+        <f t="shared" si="2"/>
+        <v>152200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5339,8 +5717,12 @@
       <c r="M95" s="4">
         <v>22767</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95">
+        <f t="shared" si="2"/>
+        <v>152500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5379,6 +5761,10 @@
       </c>
       <c r="M96" s="4">
         <v>25416</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="2"/>
+        <v>152900</v>
       </c>
     </row>
   </sheetData>
